--- a/Final_Prediction_Results.xlsx
+++ b/Final_Prediction_Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,21 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>Predicted_Attrition_Logistic_Regression</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Attrition_Random_Forest</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Attrition_SVM</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
           <t>Predicted_Attrition</t>
         </is>
       </c>
@@ -836,6 +851,21 @@
         </is>
       </c>
       <c r="AT2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1016,6 +1046,21 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1188,6 +1233,21 @@
         </is>
       </c>
       <c r="AT4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1368,6 +1428,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1544,6 +1619,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1720,6 +1810,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1896,6 +2001,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2072,6 +2192,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2248,6 +2383,21 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2420,6 +2570,21 @@
         </is>
       </c>
       <c r="AT11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
